--- a/xlsx/country_comparison/solidarity_support_dem_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_dem_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tertiary diploma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rural urbanicity</t>
   </si>
   <si>
     <t xml:space="preserve">Cities urbanicity</t>
@@ -470,13 +467,10 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>0.748108439408092</v>
@@ -503,27 +497,24 @@
         <v>0.782121049276057</v>
       </c>
       <c r="J2" t="n">
-        <v>0.753800333748386</v>
+        <v>0.711853999388306</v>
       </c>
       <c r="K2" t="n">
-        <v>0.711853999388306</v>
+        <v>0.73135812153459</v>
       </c>
       <c r="L2" t="n">
-        <v>0.73135812153459</v>
+        <v>0.736175275863295</v>
       </c>
       <c r="M2" t="n">
-        <v>0.736175275863295</v>
+        <v>0.762814154253487</v>
       </c>
       <c r="N2" t="n">
-        <v>0.762814154253487</v>
-      </c>
-      <c r="O2" t="n">
         <v>0.731355344782134</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0.538331317889367</v>
@@ -550,27 +541,24 @@
         <v>0.633249512057671</v>
       </c>
       <c r="J3" t="n">
-        <v>0.42233972034234</v>
+        <v>0.530491090047037</v>
       </c>
       <c r="K3" t="n">
-        <v>0.530491090047037</v>
+        <v>0.576938071985026</v>
       </c>
       <c r="L3" t="n">
-        <v>0.576938071985026</v>
+        <v>0.51556750020134</v>
       </c>
       <c r="M3" t="n">
-        <v>0.51556750020134</v>
+        <v>0.530337112801113</v>
       </c>
       <c r="N3" t="n">
-        <v>0.530337112801113</v>
-      </c>
-      <c r="O3" t="n">
         <v>0.553881646931809</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.458387576622686</v>
@@ -597,27 +585,24 @@
         <v>0.500046847188415</v>
       </c>
       <c r="J4" t="n">
-        <v>0.325150095139831</v>
+        <v>0.41399961181027</v>
       </c>
       <c r="K4" t="n">
-        <v>0.41399961181027</v>
+        <v>0.554785188018815</v>
       </c>
       <c r="L4" t="n">
-        <v>0.554785188018815</v>
+        <v>0.448993520057655</v>
       </c>
       <c r="M4" t="n">
-        <v>0.448993520057655</v>
+        <v>0.413981039424281</v>
       </c>
       <c r="N4" t="n">
-        <v>0.413981039424281</v>
-      </c>
-      <c r="O4" t="n">
         <v>0.455580889984362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.340202418477655</v>
@@ -644,27 +629,24 @@
         <v>0.379271258972203</v>
       </c>
       <c r="J5" t="n">
-        <v>0.227860553842574</v>
+        <v>0.285600990572145</v>
       </c>
       <c r="K5" t="n">
-        <v>0.285600990572145</v>
+        <v>0.389406946865068</v>
       </c>
       <c r="L5" t="n">
-        <v>0.389406946865068</v>
+        <v>0.339337007303974</v>
       </c>
       <c r="M5" t="n">
-        <v>0.339337007303974</v>
+        <v>0.31551114659658</v>
       </c>
       <c r="N5" t="n">
-        <v>0.31551114659658</v>
-      </c>
-      <c r="O5" t="n">
         <v>0.347183390126273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.33829822989737</v>
@@ -691,27 +673,24 @@
         <v>0.374460377641061</v>
       </c>
       <c r="J6" t="n">
-        <v>0.241607166984988</v>
+        <v>0.334585430472378</v>
       </c>
       <c r="K6" t="n">
-        <v>0.334585430472378</v>
+        <v>0.490255257886471</v>
       </c>
       <c r="L6" t="n">
-        <v>0.490255257886471</v>
+        <v>0.343599455097375</v>
       </c>
       <c r="M6" t="n">
-        <v>0.343599455097375</v>
+        <v>0.25793637554977</v>
       </c>
       <c r="N6" t="n">
-        <v>0.25793637554977</v>
-      </c>
-      <c r="O6" t="n">
         <v>0.338040800150785</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.329346428115222</v>
@@ -738,27 +717,24 @@
         <v>0.427932961773657</v>
       </c>
       <c r="J7" t="n">
-        <v>0.344627770490636</v>
+        <v>0.372770786918658</v>
       </c>
       <c r="K7" t="n">
-        <v>0.372770786918658</v>
+        <v>0.267068714742044</v>
       </c>
       <c r="L7" t="n">
-        <v>0.267068714742044</v>
+        <v>0.319929706069628</v>
       </c>
       <c r="M7" t="n">
-        <v>0.319929706069628</v>
+        <v>0.366014194620236</v>
       </c>
       <c r="N7" t="n">
-        <v>0.366014194620236</v>
-      </c>
-      <c r="O7" t="n">
         <v>0.362707917421924</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.320249242216214</v>
@@ -785,27 +761,24 @@
         <v>0.352273180606548</v>
       </c>
       <c r="J8" t="n">
-        <v>0.143769515816742</v>
+        <v>0.251961732942382</v>
       </c>
       <c r="K8" t="n">
-        <v>0.251961732942382</v>
+        <v>0.446105592926278</v>
       </c>
       <c r="L8" t="n">
-        <v>0.446105592926278</v>
+        <v>0.31018158932544</v>
       </c>
       <c r="M8" t="n">
-        <v>0.31018158932544</v>
+        <v>0.261140153604597</v>
       </c>
       <c r="N8" t="n">
-        <v>0.261140153604597</v>
-      </c>
-      <c r="O8" t="n">
         <v>0.327200268184696</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>0.319190975705175</v>
@@ -832,27 +805,24 @@
         <v>0.363623914793566</v>
       </c>
       <c r="J9" t="n">
-        <v>0.248308260258622</v>
+        <v>0.303226348669692</v>
       </c>
       <c r="K9" t="n">
-        <v>0.303226348669692</v>
+        <v>0.401613752087465</v>
       </c>
       <c r="L9" t="n">
-        <v>0.401613752087465</v>
+        <v>0.304506581256036</v>
       </c>
       <c r="M9" t="n">
-        <v>0.304506581256036</v>
+        <v>0.284649579162433</v>
       </c>
       <c r="N9" t="n">
-        <v>0.284649579162433</v>
-      </c>
-      <c r="O9" t="n">
         <v>0.297748549692719</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>0.31547866481026</v>
@@ -879,27 +849,24 @@
         <v>0.394810980160475</v>
       </c>
       <c r="J10" t="n">
-        <v>0.301656552415443</v>
+        <v>0.345397790529325</v>
       </c>
       <c r="K10" t="n">
-        <v>0.345397790529325</v>
+        <v>0.337599827131369</v>
       </c>
       <c r="L10" t="n">
-        <v>0.337599827131369</v>
+        <v>0.274123764782257</v>
       </c>
       <c r="M10" t="n">
-        <v>0.274123764782257</v>
+        <v>0.325172297257023</v>
       </c>
       <c r="N10" t="n">
-        <v>0.325172297257023</v>
-      </c>
-      <c r="O10" t="n">
         <v>0.351972831617876</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>0.010244201702362</v>
@@ -926,21 +893,18 @@
         <v>0.0364949923980237</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0489927067939</v>
+        <v>0.00786964924184077</v>
       </c>
       <c r="K11" t="n">
-        <v>0.00786964924184077</v>
+        <v>0.130698396505557</v>
       </c>
       <c r="L11" t="n">
-        <v>0.130698396505557</v>
+        <v>-0.00641577157304543</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.00641577157304543</v>
+        <v>-0.0427084439940985</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.0427084439940985</v>
-      </c>
-      <c r="O11" t="n">
         <v>0.00676122222346323</v>
       </c>
     </row>
